--- a/data/US_House.xlsx
+++ b/data/US_House.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noahcg/Desktop/ncaldwell17.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2031EEC-3800-BE4A-964F-6A9B6AF346F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF72CF94-B211-5246-B235-844BE3A6FBDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3640" yWindow="440" windowWidth="26880" windowHeight="19040" activeTab="1" xr2:uid="{92823C4E-64AC-F749-9476-30888D51F230}"/>
   </bookViews>
@@ -21,8 +21,8 @@
   </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
-    <pivotCache cacheId="1" r:id="rId4"/>
+    <pivotCache cacheId="5" r:id="rId3"/>
+    <pivotCache cacheId="6" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4404" uniqueCount="1052">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4404" uniqueCount="1053">
   <si>
     <t>Name</t>
   </si>
@@ -3195,6 +3195,9 @@
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>Being Indicted in 2020</t>
   </si>
 </sst>
 </file>
@@ -19924,7 +19927,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E78D8ED4-4C26-A846-81ED-D2735DE09FC4}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E78D8ED4-4C26-A846-81ED-D2735DE09FC4}" name="PivotTable4" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="D4:E11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="20">
     <pivotField dataField="1" showAll="0"/>
@@ -20018,7 +20021,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7CFC60F6-9A51-A542-B06E-B0E3F6F53BCD}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7CFC60F6-9A51-A542-B06E-B0E3F6F53BCD}" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A12:B17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField dataField="1" showAll="0"/>
@@ -20084,7 +20087,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{67D890BE-2EEB-4C41-820A-07B2792BAF3B}" name="PivotTable7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{67D890BE-2EEB-4C41-820A-07B2792BAF3B}" name="PivotTable7" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A5:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="20">
     <pivotField dataField="1" showAll="0"/>
@@ -20698,10 +20701,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5977328C-D27F-EE4B-8E3C-66A6206AC9B8}">
   <dimension ref="A1:FA440"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A26" sqref="A26"/>
-      <selection pane="topRight" activeCell="D181" sqref="D181"/>
+      <selection pane="topRight" activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20995,7 +20998,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="37">
-        <v>0.6</v>
+        <v>60</v>
       </c>
       <c r="M3" s="2">
         <v>0</v>
@@ -21063,28 +21066,13 @@
         <v>0</v>
       </c>
       <c r="L4" s="37">
-        <v>0.66</v>
+        <v>66</v>
       </c>
       <c r="M4" s="2">
-        <v>0</v>
-      </c>
-      <c r="O4" s="2">
-        <v>0</v>
-      </c>
-      <c r="P4" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="2">
         <v>0</v>
       </c>
       <c r="R4" s="2" t="s">
         <v>526</v>
-      </c>
-      <c r="S4" s="2">
-        <v>0</v>
-      </c>
-      <c r="T4" s="2">
-        <v>0</v>
       </c>
       <c r="V4" s="32" t="s">
         <v>632</v>
@@ -21128,7 +21116,7 @@
         <v>1</v>
       </c>
       <c r="L5" s="37">
-        <v>0.37</v>
+        <v>37</v>
       </c>
       <c r="M5" s="2">
         <v>0</v>
@@ -21136,24 +21124,14 @@
       <c r="N5" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="O5" s="2">
-        <v>0</v>
-      </c>
-      <c r="P5" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>0</v>
-      </c>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
       <c r="R5" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="S5" s="2">
-        <v>0</v>
-      </c>
-      <c r="T5" s="2">
-        <v>0</v>
-      </c>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
       <c r="V5" s="32" t="s">
         <v>629</v>
       </c>
@@ -21330,30 +21308,20 @@
         <v>0</v>
       </c>
       <c r="L6" s="37">
-        <v>0.66</v>
+        <v>66</v>
       </c>
       <c r="M6" s="2">
         <v>0</v>
       </c>
       <c r="N6" s="2"/>
-      <c r="O6" s="2">
-        <v>0</v>
-      </c>
-      <c r="P6" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>0</v>
-      </c>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
       <c r="R6" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="S6" s="2">
-        <v>0</v>
-      </c>
-      <c r="T6" s="2">
-        <v>0</v>
-      </c>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
       <c r="V6" s="32" t="s">
         <v>633</v>
       </c>
@@ -21530,7 +21498,7 @@
         <v>1</v>
       </c>
       <c r="L7" s="37">
-        <v>0.44</v>
+        <v>44</v>
       </c>
       <c r="M7" s="2">
         <v>0</v>
@@ -21538,23 +21506,8 @@
       <c r="N7" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="O7" s="2">
-        <v>0</v>
-      </c>
-      <c r="P7" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>0</v>
-      </c>
       <c r="R7" s="2" t="s">
         <v>526</v>
-      </c>
-      <c r="S7" s="2">
-        <v>0</v>
-      </c>
-      <c r="T7" s="2">
-        <v>0</v>
       </c>
       <c r="V7" s="32" t="s">
         <v>631</v>
@@ -21598,30 +21551,20 @@
         <v>0</v>
       </c>
       <c r="L8" s="37">
-        <v>0.67</v>
+        <v>67</v>
       </c>
       <c r="M8" s="2">
         <v>0</v>
       </c>
       <c r="N8" s="2"/>
-      <c r="O8" s="2">
-        <v>0</v>
-      </c>
-      <c r="P8" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>0</v>
-      </c>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
       <c r="R8" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="S8" s="2">
-        <v>0</v>
-      </c>
-      <c r="T8" s="2">
-        <v>0</v>
-      </c>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
       <c r="V8" s="32" t="s">
         <v>633</v>
       </c>
@@ -21798,7 +21741,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="37">
-        <v>0.53</v>
+        <v>53</v>
       </c>
       <c r="M9" s="2">
         <v>0</v>
@@ -21806,23 +21749,8 @@
       <c r="N9" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="O9" s="2">
-        <v>0</v>
-      </c>
-      <c r="P9" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="2">
-        <v>0</v>
-      </c>
       <c r="R9" s="2" t="s">
         <v>526</v>
-      </c>
-      <c r="S9" s="2">
-        <v>0</v>
-      </c>
-      <c r="T9" s="2">
-        <v>0</v>
       </c>
       <c r="V9" s="32" t="s">
         <v>632</v>
@@ -21866,28 +21794,13 @@
         <v>0</v>
       </c>
       <c r="L10" s="37">
-        <v>0.68</v>
+        <v>68</v>
       </c>
       <c r="M10" s="2">
-        <v>0</v>
-      </c>
-      <c r="O10" s="2">
-        <v>0</v>
-      </c>
-      <c r="P10" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="2">
         <v>0</v>
       </c>
       <c r="R10" s="2" t="s">
         <v>526</v>
-      </c>
-      <c r="S10" s="2">
-        <v>0</v>
-      </c>
-      <c r="T10" s="2">
-        <v>0</v>
       </c>
       <c r="V10" s="32" t="s">
         <v>633</v>
@@ -21931,30 +21844,20 @@
         <v>0</v>
       </c>
       <c r="L11" s="37">
-        <v>0.82</v>
+        <v>82</v>
       </c>
       <c r="M11" s="2">
         <v>0</v>
       </c>
       <c r="N11" s="2"/>
-      <c r="O11" s="2">
-        <v>0</v>
-      </c>
-      <c r="P11" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="2">
-        <v>0</v>
-      </c>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
       <c r="R11" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="S11" s="2">
-        <v>0</v>
-      </c>
-      <c r="T11" s="2">
-        <v>0</v>
-      </c>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
       <c r="V11" s="32" t="s">
         <v>633</v>
       </c>
@@ -22131,28 +22034,13 @@
         <v>0</v>
       </c>
       <c r="L12" s="37">
-        <v>0.6</v>
+        <v>60</v>
       </c>
       <c r="M12" s="2">
-        <v>0</v>
-      </c>
-      <c r="O12" s="2">
-        <v>0</v>
-      </c>
-      <c r="P12" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="2">
         <v>0</v>
       </c>
       <c r="R12" s="2" t="s">
         <v>526</v>
-      </c>
-      <c r="S12" s="2">
-        <v>0</v>
-      </c>
-      <c r="T12" s="2">
-        <v>0</v>
       </c>
       <c r="V12" s="32" t="s">
         <v>633</v>
@@ -22196,7 +22084,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="37">
-        <v>0.47</v>
+        <v>47</v>
       </c>
       <c r="M13" s="2">
         <v>1</v>
@@ -22204,23 +22092,8 @@
       <c r="N13" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="O13" s="2">
-        <v>0</v>
-      </c>
-      <c r="P13" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="2">
-        <v>0</v>
-      </c>
       <c r="R13" s="2" t="s">
         <v>526</v>
-      </c>
-      <c r="S13" s="2">
-        <v>0</v>
-      </c>
-      <c r="T13" s="2">
-        <v>0</v>
       </c>
       <c r="V13" s="32" t="s">
         <v>631</v>
@@ -22264,7 +22137,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="37">
-        <v>0.74</v>
+        <v>74</v>
       </c>
       <c r="M14" s="2">
         <v>0</v>
@@ -22272,23 +22145,8 @@
       <c r="N14" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="O14" s="2">
-        <v>0</v>
-      </c>
-      <c r="P14" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="2">
-        <v>0</v>
-      </c>
       <c r="R14" s="2" t="s">
         <v>526</v>
-      </c>
-      <c r="S14" s="2">
-        <v>0</v>
-      </c>
-      <c r="T14" s="2">
-        <v>0</v>
       </c>
       <c r="V14" s="32" t="s">
         <v>633</v>
@@ -22757,7 +22615,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="37">
-        <v>0.69</v>
+        <v>69</v>
       </c>
       <c r="M19" s="2">
         <v>0</v>
@@ -22801,7 +22659,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="37">
-        <v>0.61</v>
+        <v>61</v>
       </c>
       <c r="M20" s="2">
         <v>1</v>
@@ -22845,7 +22703,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="37">
-        <v>0.52</v>
+        <v>52</v>
       </c>
       <c r="M21" s="2">
         <v>0</v>
@@ -23031,7 +22889,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="37">
-        <v>0.46</v>
+        <v>46</v>
       </c>
       <c r="M22" s="2">
         <v>0</v>
@@ -24692,7 +24550,7 @@
         <v>9</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>504</v>
+        <v>1052</v>
       </c>
       <c r="W49" s="21">
         <v>0</v>
@@ -27392,7 +27250,7 @@
         <v>9</v>
       </c>
       <c r="I125" s="4" t="s">
-        <v>504</v>
+        <v>570</v>
       </c>
       <c r="W125" s="21">
         <v>0</v>
@@ -43003,8 +42861,8 @@
       <c r="O399" s="2">
         <v>0</v>
       </c>
-      <c r="P399" s="2">
-        <v>0</v>
+      <c r="P399" s="28">
+        <v>1</v>
       </c>
       <c r="Q399" s="2">
         <v>2</v>
@@ -45705,6 +45563,7 @@
     <hyperlink ref="O261" r:id="rId14" display="Yes" xr:uid="{ECAAB388-8495-A549-ACC5-678FC68214F3}"/>
     <hyperlink ref="O387" r:id="rId15" display="Yes" xr:uid="{A619C338-896C-7A40-9277-3BC59243C17A}"/>
     <hyperlink ref="P257" r:id="rId16" display="http://www.rollcall.com/news/campaigns/ex-rep-issa-run-rep-hunter-sitting-member-party" xr:uid="{292A5DF9-C26D-4B4D-86D1-BF8A2BEFE320}"/>
+    <hyperlink ref="P399" r:id="rId17" display="https://www.youtube.com/watch?v=_PH1kWMyejY&amp;feature=youtu.be" xr:uid="{91A87F4E-2734-2940-8D06-B1B0DB725869}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/US_House.xlsx
+++ b/data/US_House.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noahcg/Desktop/ncaldwell17.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB46B339-F476-2D43-A11A-92B743B66293}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41DF4FF-4E11-D44E-8EDF-95A69928ABFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3160" yWindow="440" windowWidth="30440" windowHeight="19040" activeTab="1" xr2:uid="{92823C4E-64AC-F749-9476-30888D51F230}"/>
   </bookViews>
@@ -21,8 +21,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId3"/>
-    <pivotCache cacheId="5" r:id="rId4"/>
+    <pivotCache cacheId="6" r:id="rId3"/>
+    <pivotCache cacheId="7" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -20967,7 +20967,100 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E78D8ED4-4C26-A846-81ED-D2735DE09FC4}" name="PivotTable4" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{67D890BE-2EEB-4C41-820A-07B2792BAF3B}" name="PivotTable7" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A5:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="20">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item h="1" x="1"/>
+        <item h="1" x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="14">
+        <item h="1" m="1" x="9"/>
+        <item h="1" m="1" x="12"/>
+        <item x="4"/>
+        <item h="1" m="1" x="11"/>
+        <item h="1" m="1" x="10"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item h="1" x="0"/>
+        <item h="1" x="8"/>
+        <item h="1" x="1"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="6" hier="-1"/>
+    <pageField fld="7" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Count of Name" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E78D8ED4-4C26-A846-81ED-D2735DE09FC4}" name="PivotTable4" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="D4:E11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="20">
     <pivotField dataField="1" showAll="0"/>
@@ -21060,8 +21153,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7CFC60F6-9A51-A542-B06E-B0E3F6F53BCD}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7CFC60F6-9A51-A542-B06E-B0E3F6F53BCD}" name="PivotTable1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A12:B17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField dataField="1" showAll="0"/>
@@ -21111,99 +21204,6 @@
   <colItems count="1">
     <i/>
   </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Name" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{67D890BE-2EEB-4C41-820A-07B2792BAF3B}" name="PivotTable7" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A5:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="20">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="1"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="4">
-        <item x="2"/>
-        <item h="1" x="1"/>
-        <item h="1" x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="14">
-        <item h="1" m="1" x="9"/>
-        <item h="1" m="1" x="12"/>
-        <item x="4"/>
-        <item h="1" m="1" x="11"/>
-        <item h="1" m="1" x="10"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item h="1" x="0"/>
-        <item h="1" x="8"/>
-        <item h="1" x="1"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="6" hier="-1"/>
-    <pageField fld="7" hier="-1"/>
-  </pageFields>
   <dataFields count="1">
     <dataField name="Count of Name" fld="0" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
@@ -21741,10 +21741,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5977328C-D27F-EE4B-8E3C-66A6206AC9B8}">
   <dimension ref="A1:FA436"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A262" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
       <selection activeCell="A26" sqref="A26"/>
-      <selection pane="topRight" activeCell="U53" sqref="U53"/>
+      <selection pane="topRight" activeCell="W293" sqref="W293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -45828,7 +45828,7 @@
       <c r="T296" s="2" t="s">
         <v>1001</v>
       </c>
-      <c r="U296" s="19" t="s">
+      <c r="U296" s="36" t="s">
         <v>575</v>
       </c>
       <c r="V296" s="11" t="s">
@@ -57008,6 +57008,7 @@
     <hyperlink ref="O408" r:id="rId169" location="District_5" display="https://en.wikipedia.org/wiki/2020_United_States_House_of_Representatives_elections_in_Virginia - District_5" xr:uid="{1F5C6CAC-8E94-7345-9017-780527F82BD3}"/>
     <hyperlink ref="O274" r:id="rId170" xr:uid="{85218751-E344-B547-B41A-C91E9EA7D0E6}"/>
     <hyperlink ref="U47" r:id="rId171" xr:uid="{06A79A92-785C-5C40-9615-D41D063B4BCB}"/>
+    <hyperlink ref="U296" r:id="rId172" xr:uid="{DAFDE226-3EEB-1D45-8D8A-634B25C3B6D1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/US_House.xlsx
+++ b/data/US_House.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noahcg/Desktop/ncaldwell17.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41DF4FF-4E11-D44E-8EDF-95A69928ABFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{728BCE89-38E5-EA40-A1BF-CF663DE92B03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3160" yWindow="440" windowWidth="30440" windowHeight="19040" activeTab="1" xr2:uid="{92823C4E-64AC-F749-9476-30888D51F230}"/>
   </bookViews>
@@ -21,8 +21,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId3"/>
-    <pivotCache cacheId="7" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="1" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -20967,100 +20967,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{67D890BE-2EEB-4C41-820A-07B2792BAF3B}" name="PivotTable7" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A5:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="20">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="1"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="4">
-        <item x="2"/>
-        <item h="1" x="1"/>
-        <item h="1" x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="14">
-        <item h="1" m="1" x="9"/>
-        <item h="1" m="1" x="12"/>
-        <item x="4"/>
-        <item h="1" m="1" x="11"/>
-        <item h="1" m="1" x="10"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item h="1" x="0"/>
-        <item h="1" x="8"/>
-        <item h="1" x="1"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="6" hier="-1"/>
-    <pageField fld="7" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Count of Name" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E78D8ED4-4C26-A846-81ED-D2735DE09FC4}" name="PivotTable4" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E78D8ED4-4C26-A846-81ED-D2735DE09FC4}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="D4:E11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="20">
     <pivotField dataField="1" showAll="0"/>
@@ -21153,8 +21060,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7CFC60F6-9A51-A542-B06E-B0E3F6F53BCD}" name="PivotTable1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7CFC60F6-9A51-A542-B06E-B0E3F6F53BCD}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A12:B17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField dataField="1" showAll="0"/>
@@ -21204,6 +21111,99 @@
   <colItems count="1">
     <i/>
   </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Name" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{67D890BE-2EEB-4C41-820A-07B2792BAF3B}" name="PivotTable7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A5:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="20">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item h="1" x="1"/>
+        <item h="1" x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="14">
+        <item h="1" m="1" x="9"/>
+        <item h="1" m="1" x="12"/>
+        <item x="4"/>
+        <item h="1" m="1" x="11"/>
+        <item h="1" m="1" x="10"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item h="1" x="0"/>
+        <item h="1" x="8"/>
+        <item h="1" x="1"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="6" hier="-1"/>
+    <pageField fld="7" hier="-1"/>
+  </pageFields>
   <dataFields count="1">
     <dataField name="Count of Name" fld="0" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
@@ -21741,10 +21741,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5977328C-D27F-EE4B-8E3C-66A6206AC9B8}">
   <dimension ref="A1:FA436"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A262" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A128" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A26" sqref="A26"/>
-      <selection pane="topRight" activeCell="W293" sqref="W293"/>
+      <selection pane="topRight" activeCell="I153" sqref="I153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -35149,7 +35149,7 @@
         <v>9</v>
       </c>
       <c r="I152" s="4" t="s">
-        <v>477</v>
+        <v>520</v>
       </c>
       <c r="J152" s="2" t="s">
         <v>28</v>
